--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H2">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I2">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J2">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N2">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O2">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P2">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q2">
-        <v>7.14016542262</v>
+        <v>3.212672253435666</v>
       </c>
       <c r="R2">
-        <v>64.26148880357999</v>
+        <v>28.914050280921</v>
       </c>
       <c r="S2">
-        <v>0.01081027806057976</v>
+        <v>0.008457703443658419</v>
       </c>
       <c r="T2">
-        <v>0.01338403585072601</v>
+        <v>0.01051946607646465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H3">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I3">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J3">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P3">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q3">
-        <v>8.809788858995999</v>
+        <v>4.818975786589</v>
       </c>
       <c r="R3">
-        <v>79.28809973096399</v>
+        <v>43.37078207930099</v>
       </c>
       <c r="S3">
-        <v>0.01333810375303582</v>
+        <v>0.01268646935944177</v>
       </c>
       <c r="T3">
-        <v>0.01651369722507958</v>
+        <v>0.01577909239142456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H4">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I4">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J4">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N4">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O4">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P4">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q4">
-        <v>4.758028740935999</v>
+        <v>4.561162220974667</v>
       </c>
       <c r="R4">
-        <v>42.822258668424</v>
+        <v>41.050459988772</v>
       </c>
       <c r="S4">
-        <v>0.007203700567888896</v>
+        <v>0.01200774756347073</v>
       </c>
       <c r="T4">
-        <v>0.008918788778440507</v>
+        <v>0.01493491631506568</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H5">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I5">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J5">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N5">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O5">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P5">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q5">
-        <v>3.942606991553999</v>
+        <v>1.2541422603885</v>
       </c>
       <c r="R5">
-        <v>23.655641949324</v>
+        <v>7.524853562331</v>
       </c>
       <c r="S5">
-        <v>0.005969144318038138</v>
+        <v>0.003301663686104911</v>
       </c>
       <c r="T5">
-        <v>0.004926869355445939</v>
+        <v>0.002737680851013023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H6">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I6">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J6">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N6">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O6">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P6">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q6">
-        <v>5.234977652272</v>
+        <v>1.937190475759</v>
       </c>
       <c r="R6">
-        <v>47.114798870448</v>
+        <v>17.434714281831</v>
       </c>
       <c r="S6">
-        <v>0.007925805735914688</v>
+        <v>0.005099861195093202</v>
       </c>
       <c r="T6">
-        <v>0.009812815870314719</v>
+        <v>0.006343071401573734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.35167</v>
       </c>
       <c r="I7">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J7">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N7">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O7">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P7">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q7">
-        <v>13.03863759976111</v>
+        <v>10.72509429695889</v>
       </c>
       <c r="R7">
-        <v>117.34773839785</v>
+        <v>96.52584867262998</v>
       </c>
       <c r="S7">
-        <v>0.01974062078982302</v>
+        <v>0.02823495825692912</v>
       </c>
       <c r="T7">
-        <v>0.02444055322961868</v>
+        <v>0.0351178883881137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.35167</v>
       </c>
       <c r="I8">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J8">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>107.117709</v>
       </c>
       <c r="O8">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P8">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q8">
         <v>16.08753263600333</v>
@@ -948,10 +948,10 @@
         <v>144.78779372403</v>
       </c>
       <c r="S8">
-        <v>0.0243566767448972</v>
+        <v>0.04235215093291409</v>
       </c>
       <c r="T8">
-        <v>0.0301556197658773</v>
+        <v>0.05267647630021275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.35167</v>
       </c>
       <c r="I9">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J9">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N9">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O9">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P9">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q9">
-        <v>8.68862397022</v>
+        <v>15.22685511146222</v>
       </c>
       <c r="R9">
-        <v>78.19761573197999</v>
+        <v>137.04169600316</v>
       </c>
       <c r="S9">
-        <v>0.01315465896411003</v>
+        <v>0.04008632526227305</v>
       </c>
       <c r="T9">
-        <v>0.01628657710681317</v>
+        <v>0.04985830273379822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.35167</v>
       </c>
       <c r="I10">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J10">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N10">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O10">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P10">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q10">
-        <v>7.199584423955</v>
+        <v>4.186793094155</v>
       </c>
       <c r="R10">
-        <v>43.19750654372999</v>
+        <v>25.12075856493</v>
       </c>
       <c r="S10">
-        <v>0.01090023899124369</v>
+        <v>0.01102218078188695</v>
       </c>
       <c r="T10">
-        <v>0.008996943379423304</v>
+        <v>0.009139396417014964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.35167</v>
       </c>
       <c r="I11">
-        <v>0.08262548883273427</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J11">
-        <v>0.09779885114730792</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N11">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O11">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P11">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q11">
-        <v>9.559579142884445</v>
+        <v>6.467061961103333</v>
       </c>
       <c r="R11">
-        <v>86.03621228595999</v>
+        <v>58.20355764993</v>
       </c>
       <c r="S11">
-        <v>0.01447329334266033</v>
+        <v>0.01702523254909772</v>
       </c>
       <c r="T11">
-        <v>0.01791915766557546</v>
+        <v>0.021175530383303</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H12">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I12">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J12">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N12">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O12">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P12">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q12">
-        <v>3.320937630094444</v>
+        <v>8.881617795218999</v>
       </c>
       <c r="R12">
-        <v>29.88843867085</v>
+        <v>79.93456015697097</v>
       </c>
       <c r="S12">
-        <v>0.005027931018157072</v>
+        <v>0.02338180912526932</v>
       </c>
       <c r="T12">
-        <v>0.006225002597054624</v>
+        <v>0.02908167087415035</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H13">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I13">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J13">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>107.117709</v>
       </c>
       <c r="O13">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P13">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q13">
-        <v>4.097490408603333</v>
+        <v>13.322336586039</v>
       </c>
       <c r="R13">
-        <v>36.87741367742999</v>
+        <v>119.901029274351</v>
       </c>
       <c r="S13">
-        <v>0.006203639278052895</v>
+        <v>0.03507247647213974</v>
       </c>
       <c r="T13">
-        <v>0.007680628568214563</v>
+        <v>0.04362221126858171</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H14">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I14">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J14">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N14">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O14">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P14">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q14">
-        <v>2.21299028182</v>
+        <v>12.609596109708</v>
       </c>
       <c r="R14">
-        <v>19.91691253638</v>
+        <v>113.486364987372</v>
       </c>
       <c r="S14">
-        <v>0.003350488241637499</v>
+        <v>0.03319611090928071</v>
       </c>
       <c r="T14">
-        <v>0.004148186983925491</v>
+        <v>0.04128843780193906</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H15">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I15">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J15">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N15">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O15">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P15">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q15">
-        <v>1.833732293855</v>
+        <v>3.4671486348135</v>
       </c>
       <c r="R15">
-        <v>11.00239376313</v>
+        <v>20.802891808881</v>
       </c>
       <c r="S15">
-        <v>0.002776288056637688</v>
+        <v>0.009127639745068363</v>
       </c>
       <c r="T15">
-        <v>0.002291519155736282</v>
+        <v>0.00756847665926233</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1147566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H16">
-        <v>0.34427</v>
+        <v>1.119339</v>
       </c>
       <c r="I16">
-        <v>0.02104469067186919</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J16">
-        <v>0.02490934213564235</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N16">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O16">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P16">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q16">
-        <v>2.434822339417777</v>
+        <v>5.355474833709</v>
       </c>
       <c r="R16">
-        <v>21.91340105476</v>
+        <v>48.19927350338099</v>
       </c>
       <c r="S16">
-        <v>0.00368634407738403</v>
+        <v>0.01409886050313649</v>
       </c>
       <c r="T16">
-        <v>0.00456400483071139</v>
+        <v>0.01753578684421197</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H17">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I17">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J17">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N17">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O17">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P17">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q17">
-        <v>73.4492731598025</v>
+        <v>40.38617266371133</v>
       </c>
       <c r="R17">
-        <v>440.695638958815</v>
+        <v>242.317035982268</v>
       </c>
       <c r="S17">
-        <v>0.1112028950603207</v>
+        <v>0.1063209206132906</v>
       </c>
       <c r="T17">
-        <v>0.09178570775277144</v>
+        <v>0.08815941782625056</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H18">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I18">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J18">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>107.117709</v>
       </c>
       <c r="O18">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P18">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q18">
-        <v>90.6243133155795</v>
+        <v>60.578849265218</v>
       </c>
       <c r="R18">
-        <v>543.745879893477</v>
+        <v>363.473095591308</v>
       </c>
       <c r="S18">
-        <v>0.1372060684878411</v>
+        <v>0.1594803022609535</v>
       </c>
       <c r="T18">
-        <v>0.1132484554228601</v>
+        <v>0.1322382323345177</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H19">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I19">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J19">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N19">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O19">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P19">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q19">
-        <v>48.94476976514699</v>
+        <v>57.33790143282934</v>
       </c>
       <c r="R19">
-        <v>293.668618590882</v>
+        <v>344.027408596976</v>
       </c>
       <c r="S19">
-        <v>0.07410284488593073</v>
+        <v>0.1509481603303855</v>
       </c>
       <c r="T19">
-        <v>0.06116371395420553</v>
+        <v>0.1251635318797909</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H20">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I20">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J20">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N20">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O20">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P20">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q20">
-        <v>40.55670992817674</v>
+        <v>15.765693440637</v>
       </c>
       <c r="R20">
-        <v>162.226839712707</v>
+        <v>63.06277376254801</v>
       </c>
       <c r="S20">
-        <v>0.06140324286562394</v>
+        <v>0.041504874816266</v>
       </c>
       <c r="T20">
-        <v>0.03378773008669996</v>
+        <v>0.02294340304584121</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.5380765</v>
+        <v>1.696606</v>
       </c>
       <c r="H21">
-        <v>5.076153</v>
+        <v>3.393212</v>
       </c>
       <c r="I21">
-        <v>0.465446029372647</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J21">
-        <v>0.3672804246953477</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N21">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O21">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P21">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q21">
-        <v>53.851035768594</v>
+        <v>24.352222344758</v>
       </c>
       <c r="R21">
-        <v>323.106214611564</v>
+        <v>146.113334068548</v>
       </c>
       <c r="S21">
-        <v>0.08153097807293044</v>
+        <v>0.06410983086299428</v>
       </c>
       <c r="T21">
-        <v>0.06729481747881057</v>
+        <v>0.05315873238511496</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H22">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I22">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J22">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N22">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O22">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P22">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q22">
-        <v>60.85504621762779</v>
+        <v>14.10866409267033</v>
       </c>
       <c r="R22">
-        <v>547.6954159586501</v>
+        <v>126.977976834033</v>
       </c>
       <c r="S22">
-        <v>0.09213511621423957</v>
+        <v>0.03714256776563133</v>
       </c>
       <c r="T22">
-        <v>0.1140710434654682</v>
+        <v>0.04619693563461482</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H23">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I23">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J23">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>107.117709</v>
       </c>
       <c r="O23">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P23">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q23">
-        <v>75.08511028096335</v>
+        <v>21.162853002197</v>
       </c>
       <c r="R23">
-        <v>675.76599252867</v>
+        <v>190.465677019773</v>
       </c>
       <c r="S23">
-        <v>0.113679567951616</v>
+        <v>0.05571347482548385</v>
       </c>
       <c r="T23">
-        <v>0.140744891522048</v>
+        <v>0.06929493476956609</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H24">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I24">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J24">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N24">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O24">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P24">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q24">
-        <v>40.55229000958001</v>
+        <v>20.03064756421734</v>
       </c>
       <c r="R24">
-        <v>364.97061008622</v>
+        <v>180.275828077956</v>
       </c>
       <c r="S24">
-        <v>0.06139655106701594</v>
+        <v>0.05273282287087227</v>
       </c>
       <c r="T24">
-        <v>0.07601410768409063</v>
+        <v>0.0655876793270979</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H25">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I25">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J25">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N25">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O25">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P25">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q25">
-        <v>33.602517096995</v>
+        <v>5.5076492341605</v>
       </c>
       <c r="R25">
-        <v>201.61510258197</v>
+        <v>33.04589540496301</v>
       </c>
       <c r="S25">
-        <v>0.05087452906946937</v>
+        <v>0.014499475894065</v>
       </c>
       <c r="T25">
-        <v>0.04199130476501754</v>
+        <v>0.01202270772518814</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>2.102876666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H26">
-        <v>6.308630000000001</v>
+        <v>1.778097</v>
       </c>
       <c r="I26">
-        <v>0.3856367586872924</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J26">
-        <v>0.4564551749416954</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N26">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O26">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P26">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q26">
-        <v>44.61728659227111</v>
+        <v>8.507300947607</v>
       </c>
       <c r="R26">
-        <v>401.55557933044</v>
+        <v>76.56570852846301</v>
       </c>
       <c r="S26">
-        <v>0.06755099438495139</v>
+        <v>0.02239637997429329</v>
       </c>
       <c r="T26">
-        <v>0.08363382750507103</v>
+        <v>0.02785602036588806</v>
       </c>
     </row>
   </sheetData>
